--- a/data/trans_dic/P25C$productsfarma_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Provincia-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008691899155911448</v>
+        <v>0.008706039047119881</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.085488665034866</v>
+        <v>0.08648844121033951</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2921335481798248</v>
+        <v>0.2646038780437507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.090385111680819</v>
+        <v>0.09620606867605387</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007607194927320993</v>
+        <v>0.007469175819247653</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009878762386262707</v>
+        <v>0.01024661112564565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01111149597918981</v>
+        <v>0.01123674297016451</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07362856451094563</v>
+        <v>0.08352673033472123</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07894210599793926</v>
+        <v>0.08918220863079017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06106503992566373</v>
+        <v>0.06240432746251834</v>
       </c>
     </row>
     <row r="10">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005790978664219217</v>
+        <v>0.00581097279660639</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06874789551344067</v>
+        <v>0.06912341015767681</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09161509764724259</v>
+        <v>0.09487039569310188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05520537980210304</v>
+        <v>0.05862879312826461</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.0478416722512217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1050878004483646</v>
+        <v>0.1050878004483645</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08038720953333155</v>
+        <v>0.07163586937126798</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01881998529882303</v>
+        <v>0.01593867573856208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06165313331890521</v>
+        <v>0.06395669896473238</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2476524191669108</v>
+        <v>0.2343464035471118</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1003979400558022</v>
+        <v>0.09636686460267374</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.167126897384125</v>
+        <v>0.1754183301488078</v>
       </c>
     </row>
     <row r="16">
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006818663513672807</v>
+        <v>0.00662150043746952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.00955303966307126</v>
+        <v>0.009125138184479355</v>
       </c>
     </row>
     <row r="24">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0459842127969325</v>
+        <v>0.0465526393083369</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09857353396859111</v>
+        <v>0.09285866681689439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04947576963175721</v>
+        <v>0.05806622316292002</v>
       </c>
     </row>
     <row r="25">
@@ -942,11 +942,11 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005926398806353209</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="n">
-        <v>0.004250576812924749</v>
+        <v>0.004232365314482611</v>
       </c>
     </row>
     <row r="27">
@@ -957,11 +957,11 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06564971705671582</v>
+        <v>0.05669657640294237</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.04151802296232876</v>
+        <v>0.04350479150905696</v>
       </c>
     </row>
     <row r="28">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
     </row>
     <row r="29">
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
     </row>
     <row r="30">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="31">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4305</v>
+        <v>4356</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3633</v>
+        <v>3291</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5676</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="8">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2059</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="11">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8733</v>
+        <v>9907</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5269</v>
+        <v>5952</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11318</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="12">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4653</v>
+        <v>4679</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4547</v>
+        <v>4709</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6477</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="16">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8636</v>
+        <v>7696</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1225</v>
+        <v>1038</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10637</v>
+        <v>11034</v>
       </c>
     </row>
     <row r="19">
@@ -1395,13 +1395,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26606</v>
+        <v>25176</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6535</v>
+        <v>6273</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28834</v>
+        <v>30264</v>
       </c>
     </row>
     <row r="20">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2386</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="31">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6546</v>
+        <v>6627</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10588</v>
+        <v>9974</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12357</v>
+        <v>14503</v>
       </c>
     </row>
     <row r="32">
@@ -1642,11 +1642,11 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35">
@@ -1657,11 +1657,11 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7454</v>
+        <v>6437</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>6551</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="36">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
     </row>
     <row r="39">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
     </row>
     <row r="40">
